--- a/src/main/resources/97-mall-swarm/mall-search_structure.xlsx
+++ b/src/main/resources/97-mall-swarm/mall-search_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="162">
   <si>
     <t>类名</t>
   </si>
@@ -100,7 +100,7 @@
     <t>com.macro.mall.search.repository.EsProductRepository</t>
   </si>
   <si>
-    <t>findByNameOrSubTitleOrKeywords(org.springframework.data.domain.Pageable)</t>
+    <t>findByNameOrSubTitleOrKeywords(java.lang.String,java.lang.String,java.lang.String,org.springframework.data.domain.Pageable)</t>
   </si>
   <si>
     <t>org.springframework.data.domain.Page</t>
@@ -3879,7 +3879,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3907,13 +3907,13 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>155</v>
@@ -3927,10 +3927,10 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
         <v>155</v>
@@ -3947,7 +3947,7 @@
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
         <v>155</v>
@@ -3964,7 +3964,7 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
         <v>155</v>
@@ -3975,13 +3975,13 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
         <v>155</v>
@@ -3992,13 +3992,13 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
         <v>155</v>
@@ -4009,13 +4009,13 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
         <v>155</v>
@@ -4026,13 +4026,13 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
         <v>155</v>
@@ -4043,13 +4043,13 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
         <v>155</v>
@@ -4066,7 +4066,7 @@
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
         <v>155</v>
@@ -4080,10 +4080,10 @@
         <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
         <v>155</v>
@@ -4100,7 +4100,7 @@
         <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
         <v>155</v>
@@ -4117,7 +4117,7 @@
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
         <v>155</v>
@@ -4131,12 +4131,29 @@
         <v>46</v>
       </c>
       <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>102</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>155</v>
       </c>
     </row>
